--- a/data/Map011.xlsx
+++ b/data/Map011.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63878A9-97BA-4F51-862E-36CFE8FEAF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
   <si>
     <t>扉</t>
   </si>
@@ -280,22 +285,202 @@
   </si>
   <si>
     <t>もう使えそうなものはない。</t>
+  </si>
+  <si>
+    <t>A mechanical door.
+Will it open if you turn on the power...?</t>
+  </si>
+  <si>
+    <t>...
+It doesn't seem to open if you run electricity through it.
+There must be another way to open it.</t>
+  </si>
+  <si>
+    <t>The door doesn't budge...</t>
+  </si>
+  <si>
+    <t>Nothing else useful.</t>
+  </si>
+  <si>
+    <t>Monitor Lily's behavior routinely.
+Report any unusual behavior to Dr. Chocolat.</t>
+  </si>
+  <si>
+    <t>Succubi are extremely dangerous. Do not interact directly.
+If you must interfere, do so using an orc.</t>
+  </si>
+  <si>
+    <t>If a video monitor malfunctions,
+pick up a replacement from Elec Tower.</t>
+  </si>
+  <si>
+    <t>・Confirmed Shina and Lime have been neutralized.
+・Placing the cell key in an easily visible location.
+・Ako has picked up the key. No issues.</t>
+  </si>
+  <si>
+    <t>・\n[1] is reading a diary. Appears to be thinking.
+・\n[1] is not attempting to escape.</t>
+  </si>
+  <si>
+    <t>※\n[1] has likely discovered the mansion's secret.
+Execute Plan C. All staff evacuate immediately.</t>
+  </si>
+  <si>
+    <t>・2:00PM - Lily reads a novel, occasionally smiling to herself
+・2:30PM - Lime struggles to remove trash attached to her body
+・3:00PM - Shina flicks a booger onto Lily's clothing</t>
+  </si>
+  <si>
+    <t>・4:00PM - Lily mashes her face into her futon
+・5:00PM - Lime begins preparing for dinner
+・6:00PM - Shina rubs another booger on Lily's clothes</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;What's with all the boogers!?</t>
+  </si>
+  <si>
+    <t>・7:00AM - Lime brings breakfast to the semen slaves
+・8:30AM - Lily looks at her reflection while wearing a maid dress
+・9:00AM - Shina is sound asleep</t>
+  </si>
+  <si>
+    <t>・10:00AM - Lily chats with Lime (Subject unknown)
+・11:00AM - Lime cleans the bathroom
+・12:00PM - Shina wakes up</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;They were spying on every moment of our lives...</t>
+  </si>
+  <si>
+    <t>Concerning the 3 succubi</t>
+  </si>
+  <si>
+    <t>Shina
+Likely a stray cat transformed into a succubus.
+Low intelligence level. Can still speak cat. Nicotine addiction.</t>
+  </si>
+  <si>
+    <t>Lime
+A slime escaped from the lab, transformed into a succubus. Voracious
+appetite, likely due to her primal slime instincts. Overweight.</t>
+  </si>
+  <si>
+    <t>Lily
+Pure blooded succubus. Extremely short temper.
+Easily set off by trivial matters...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Who wrote this!?
+This is slander! I am so angry now!</t>
+  </si>
+  <si>
+    <t>Chocolat's Lab Report
+Succubus Ecology</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Don't read</t>
+  </si>
+  <si>
+    <t>A strange, mechanical box displays an image of a room...
+What in the world is this...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Shina...!
+Whoever you are... I'll never forgive you!!</t>
+  </si>
+  <si>
+    <t>You heard something move in the next room over...</t>
+  </si>
+  <si>
+    <t>Do not touch!' is written here.</t>
+  </si>
+  <si>
+    <t>One of the mansion's rooms is displayed in a strange, mechanical box...</t>
+  </si>
+  <si>
+    <t>About charms (Charm magic)
+Simply put, charm magic entices the subject
+to do the caster's bidding.</t>
+  </si>
+  <si>
+    <t>Charms are applied by gazes, or whispered words. As such, they
+can be resisted by shutting one's eyes and ears. They may also be
+resisted by a subject with an extremely strong will.</t>
+  </si>
+  <si>
+    <t>Also, a charmed subject cannot be re-charmed. This is thought to
+be a measure to reduce competition between succubi for food.</t>
+  </si>
+  <si>
+    <t>With this knowledge, we can charm the orcs in advance, then send
+them to the mansion to spy on Lily without worrying
+about their charms being overwritten.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Those pigs...
+How dare they deceive me.
+(Although I did work them to the bone.)</t>
+  </si>
+  <si>
+    <t>Observation reports on three idiots line the shelf...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;I'll be burning these later.
+Along with whoever wrote them.</t>
+  </si>
+  <si>
+    <t>This is horrible</t>
+  </si>
+  <si>
+    <t>What goes around comes around</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;...
+I feel so violated.
+But I don't have time to worry now. We have to keep going.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;You shut your mouth.
+I-I ought to slap you for saying that.
+Know your place, semen slave!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;A semen slave that made a succubus cum...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;What...?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;...
+Right.
+But we don't have time to worry now. Let's keep going.</t>
+  </si>
+  <si>
+    <t>How awful</t>
+  </si>
+  <si>
+    <t>You reap what you sow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -303,28 +488,42 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -614,395 +813,524 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="72.7109375" customWidth="1"/>
+    <col min="2" max="2" width="84.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="B3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="B11" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="B15" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="B19" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="B23" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="B24" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+      <c r="B30" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="36" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+      <c r="B36" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+      <c r="B37" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="B38" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+      <c r="B39" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+      <c r="B47" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+      <c r="B51" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+      <c r="B57" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+      <c r="B58" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+      <c r="B59" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>